--- a/out_files/test_dup.xlsx
+++ b/out_files/test_dup.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Poliza</t>
   </si>
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>UNF458406</t>
-  </si>
-  <si>
-    <t>FT088367</t>
   </si>
   <si>
     <t>9BFZH55K2J8050544</t>
@@ -55,6 +52,23 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -86,22 +100,43 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="7" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="5" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="6" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="13" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -444,70 +479,53 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="5">
+      <c r="A1" t="s" s="8">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="5">
+      <c r="B1" t="s" s="8">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="5">
+      <c r="C1" t="s" s="8">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="5">
+      <c r="D1" t="s" s="8">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="5">
+      <c r="E1" t="s" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>111</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>111</v>
       </c>
-      <c r="C2" t="s" s="1">
+      <c r="C2" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="D2" t="s" s="1">
+      <c r="D2" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>24</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3">
-        <v>111</v>
-      </c>
-      <c r="B3" s="3">
-        <v>111</v>
-      </c>
-      <c r="C3" t="s" s="1">
+      <c r="A3" s="4">
+        <v>333</v>
+      </c>
+      <c r="B3" s="4">
+        <v>333</v>
+      </c>
+      <c r="C3" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="D3" t="s" s="1">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3">
-        <v>333</v>
-      </c>
-      <c r="B4" s="3">
-        <v>333</v>
-      </c>
-      <c r="C4" t="s" s="1">
+      <c r="D3" t="s" s="4">
         <v>8</v>
       </c>
-      <c r="D4" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="E3" s="4">
         <v>32</v>
       </c>
     </row>

--- a/out_files/test_dup.xlsx
+++ b/out_files/test_dup.xlsx
@@ -59,6 +59,102 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i val="true"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="true"/>
       <i val="true"/>
       <sz val="12"/>
       <color theme="1"/>
@@ -95,48 +191,47 @@
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+        </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="7" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="13" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -496,36 +591,36 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="7">
         <v>111</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="7">
         <v>111</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" t="s" s="9">
         <v>5</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" t="s" s="9">
         <v>6</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="7">
         <v>24</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="7">
         <v>333</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="7">
         <v>333</v>
       </c>
-      <c r="C3" t="s" s="4">
+      <c r="C3" t="s" s="9">
         <v>7</v>
       </c>
-      <c r="D3" t="s" s="4">
+      <c r="D3" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="7">
         <v>32</v>
       </c>
     </row>

--- a/out_files/test_dup.xlsx
+++ b/out_files/test_dup.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Poliza</t>
   </si>
@@ -23,6 +23,12 @@
     <t>desmotor</t>
   </si>
   <si>
+    <t>producto</t>
+  </si>
+  <si>
+    <t>codepais</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Zona Riesgo</t>
   </si>
   <si>
@@ -30,6 +36,12 @@
   </si>
   <si>
     <t>UNF458406</t>
+  </si>
+  <si>
+    <t>'pepe pe'</t>
+  </si>
+  <si>
+    <t>ar</t>
   </si>
   <si>
     <t>9BFZH55K2J8050544</t>
@@ -570,7 +582,9 @@
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="5" max="5" width="57" customWidth="1"/>
+    <col min="6" max="6" width="36" customWidth="1"/>
+    <col min="7" max="7" width="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -586,8 +600,14 @@
       <c r="D1" t="s" s="8">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="8">
+      <c r="E1" t="s" s="7">
         <v>4</v>
+      </c>
+      <c r="F1" t="s" s="7">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="2">
@@ -597,13 +617,19 @@
       <c r="B2" s="7">
         <v>111</v>
       </c>
-      <c r="C2" t="s" s="9">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="C2" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="G2" s="7">
         <v>24</v>
       </c>
     </row>
@@ -614,13 +640,19 @@
       <c r="B3" s="7">
         <v>333</v>
       </c>
-      <c r="C3" t="s" s="9">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="G3" s="7">
         <v>32</v>
       </c>
     </row>

--- a/out_files/test_dup.xlsx
+++ b/out_files/test_dup.xlsx
@@ -38,7 +38,7 @@
     <t>UNF458406</t>
   </si>
   <si>
-    <t>'pepe pe'</t>
+    <t>pepe pe</t>
   </si>
   <si>
     <t>ar</t>
